--- a/biology/Botanique/Bignoniaceae/Bignoniaceae.xlsx
+++ b/biology/Botanique/Bignoniaceae/Bignoniaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Bignoniaceae (Bignoniacées) sont une famille de plantes dicotylédones ; elle comprend 650 espèces réparties en plus de 100 genres.
 Ce sont des arbres, des arbustes, des lianes des régions tempérées à tropicales.
@@ -517,10 +529,12 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom découle du genre Bignonia, le plus important de cette famille, lequel fut donné en 1694 par Joseph Pitton de Tournefort, en hommage à Jean-Paul Bignon, prédicateur et bibliothécaire du roi Louis XIV[2].
-Quant au nom scientifique de cette famille, il fut donné en 1789, sous l’appellation de Bignoniae - Les Bignones, par le botaniste français Antoine Laurent de Jussieu (1748-1836) dans son ouvrage Genera Plantarum, secundum[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom découle du genre Bignonia, le plus important de cette famille, lequel fut donné en 1694 par Joseph Pitton de Tournefort, en hommage à Jean-Paul Bignon, prédicateur et bibliothécaire du roi Louis XIV.
+Quant au nom scientifique de cette famille, il fut donné en 1789, sous l’appellation de Bignoniae - Les Bignones, par le botaniste français Antoine Laurent de Jussieu (1748-1836) dans son ouvrage Genera Plantarum, secundum.
 </t>
         </is>
       </c>
@@ -549,9 +563,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon GBIF       (18 mai 2022)[4] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon GBIF       (18 mai 2022) :
 Adenocalymma Mart. - 106 espèces
 Adenocalymma Mart. ex Meisn. - 22 espèces
 Alsocydia Mart. ex DC., 1845
@@ -706,7 +722,7 @@
 Xylophragma Sprague - 11 espèces
 Zeyheria Mart. - 5 espèces
 ×Chitalpa T.S.Elias &amp; Wisura - 1 espèce
-Selon Angiosperm Phylogeny Website                        (2014)[5] :
+Selon Angiosperm Phylogeny Website                        (2014) :
 tribu des Bignonieae
 Adenocalymma Meisner
 Amphilophium Kunth
@@ -940,7 +956,7 @@
 Zaa Baillon - synonyme de Phyllarthron de Candolle
 Zenkeria Reichenbach - synonyme de Parmentiera de Candolle
 Zeyhera Martius - synonyme de Zeyheria Martius
-Selon NCBI  (6 juillet 2010)[6] :
+Selon NCBI  (6 juillet 2010) :
 tribu Bignonieae
 Adenocalymma
 Amphilophium
@@ -1044,7 +1060,7 @@
 Bignoniaceae incertae sedis
 Argylia
 Delostoma
-Selon DELTA Angio           (6 juillet 2010)[7] :
+Selon DELTA Angio           (6 juillet 2010) :
 Adenocalymna
 Amphilophium
 Amphitecna
@@ -1150,7 +1166,7 @@
 Urbanolophium
 Xylophragma
 Zeyheria
-Selon ITIS      (6 juillet 2010)[8] :
+Selon ITIS      (6 juillet 2010) :
 Adenocalymma Mart. ex Meisn.
 Amphilophium Kunth
 Amphitecna Miers
